--- a/biology/Botanique/Tazzelenghe/Tazzelenghe.xlsx
+++ b/biology/Botanique/Tazzelenghe/Tazzelenghe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La tazzelenghe est un cépage italien de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle provient probablement de la région Frioul-Vénétie Julienne.
 Elle est classée cépage d'appoint en DOC Colli Orientali del Friuli. Il est classé recommandé dans la province d'Udine et autorisé pour celle de Gorizia.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc.
 Jeunes feuilles duveteuses, jaune à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de quatrième époque : 40 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique, moyennement compacte. Le vin rouge est très acidulé.
 </t>
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La tazzelenghe est connu sous les noms de tacelenghe, tacé-lenghe, tassalinghe, taze-lenghetazzalenghe, tazzalenghe nera, tazzalenghe nera friulana
 </t>
